--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,10 +462,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Observation.extension:entity-asserter</t>
-  </si>
-  <si>
-    <t>entity-asserter</t>
+    <t>Observation.extension:entityAsserter</t>
+  </si>
+  <si>
+    <t>entityAsserter</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/entity-asserter}
@@ -1132,10 +1132,10 @@
     <t>Observation.bodySite.extension</t>
   </si>
   <si>
-    <t>Observation.bodySite.extension:mcode-body-location-qualifier</t>
-  </si>
-  <si>
-    <t>mcode-body-location-qualifier</t>
+    <t>Observation.bodySite.extension:mcodeBodyLocationQualifier</t>
+  </si>
+  <si>
+    <t>mcodeBodyLocationQualifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier}
@@ -1148,10 +1148,10 @@
     <t>Qualifier to refine an body location. These include qualifiers for relative location, directionality, number, and plane, and exclude qualifiers for laterality.</t>
   </si>
   <si>
-    <t>Observation.bodySite.extension:mcode-laterality-qualifier</t>
-  </si>
-  <si>
-    <t>mcode-laterality-qualifier</t>
+    <t>Observation.bodySite.extension:mcodeLateralityQualifier</t>
+  </si>
+  <si>
+    <t>mcodeLateralityQualifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier}
@@ -2121,9 +2121,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.2265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-participant-assertion.xlsx
+++ b/StructureDefinition-ncpi-participant-assertion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
